--- a/src/utils/sxsyzlzq/friends/jiaoshou/zz_jjiaoshou_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/jiaoshou/zz_jjiaoshou_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13020" windowHeight="6630" activeTab="3"/>
+    <workbookView windowWidth="19005" windowHeight="12795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="伊萝莲" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="63">
   <si>
     <t>名称</t>
   </si>
@@ -53,7 +53,7 @@
     <t>蓝色</t>
   </si>
   <si>
-    <t>圣殿卫士</t>
+    <t>旅行背包</t>
   </si>
   <si>
     <t>学仆-观测型</t>
@@ -62,6 +62,9 @@
     <t>天使琼浆</t>
   </si>
   <si>
+    <t>民兵队长</t>
+  </si>
+  <si>
     <t>沉重否定</t>
   </si>
   <si>
@@ -86,15 +89,12 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
-    <t>传记·钢铁守卫</t>
+    <t>四芒军旗</t>
   </si>
   <si>
     <t>紫色</t>
   </si>
   <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -110,6 +110,9 @@
     <t>白袍主教</t>
   </si>
   <si>
+    <t>冲锋装备</t>
+  </si>
+  <si>
     <t>夺取阵地</t>
   </si>
   <si>
@@ -122,9 +125,6 @@
     <t>禁卫百夫长</t>
   </si>
   <si>
-    <t>田园保卫战</t>
-  </si>
-  <si>
     <t>观星台大预言家</t>
   </si>
   <si>
@@ -170,19 +170,19 @@
     <t>隐形术</t>
   </si>
   <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
     <t>飓风术</t>
   </si>
   <si>
     <t>连击</t>
   </si>
   <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
     <t>风卷残云</t>
   </si>
   <si>
-    <t>茁壮生长</t>
+    <t>墨轩隐士</t>
   </si>
   <si>
     <t>蟠桃会</t>
@@ -191,10 +191,7 @@
     <t>上宝沁金耙</t>
   </si>
   <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
+    <t>明月曲</t>
   </si>
   <si>
     <t>圣枪·卡罗琳</t>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>明月曲</t>
   </si>
   <si>
     <t>悟能禅杖</t>
@@ -1203,8 +1197,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1249,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1266,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1280,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1294,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1305,10 +1299,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1350,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1361,17 +1355,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -1380,44 +1382,36 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>16</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.5454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1425,13 +1419,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1439,13 +1433,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1453,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -1467,7 +1461,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -1481,7 +1475,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -1495,13 +1489,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1509,13 +1503,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1523,13 +1517,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1537,13 +1531,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1551,13 +1545,13 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1565,13 +1559,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1579,13 +1573,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -1603,15 +1597,15 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <f>AVERAGE(D17:D30)</f>
-        <v>15.5714285714286</v>
+        <f>AVERAGE(D18:D30)</f>
+        <v>16.7692307692308</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1625,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1653,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1667,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1695,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1712,7 +1706,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>40</v>
@@ -1720,7 +1714,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D36:D41)</f>
-        <v>15.6666666666667</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1730,8 +1724,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D30,D36:D41)</f>
-        <v>16.6666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D30,D36:D41)</f>
+        <v>17.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1746,8 +1740,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1795,12 +1789,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1809,12 +1803,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1823,12 +1817,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1837,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1907,14 +1901,22 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -1923,30 +1925,22 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>16</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>15.1818181818182</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1954,7 +1948,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1968,13 +1962,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1982,13 +1976,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1996,7 +1990,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -2010,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -2021,24 +2015,24 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2049,58 +2043,58 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2108,13 +2102,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2122,13 +2116,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -2146,15 +2140,15 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <f>AVERAGE(D17:D30)</f>
-        <v>13.7142857142857</v>
+        <f>AVERAGE(D18:D30)</f>
+        <v>15.3846153846154</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2168,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2196,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2210,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2238,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2255,7 +2249,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>40</v>
@@ -2263,7 +2257,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D36:D41)</f>
-        <v>15.6666666666667</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2273,8 +2267,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D30,D36:D41)</f>
-        <v>14.7666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D30,D36:D41)</f>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
@@ -2288,8 +2282,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2334,10 +2328,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2351,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2365,40 +2359,40 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2412,7 +2406,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2421,12 +2415,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2435,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2449,21 +2443,21 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2491,12 +2485,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -2505,12 +2499,12 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -2536,23 +2530,23 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <f>AVERAGE(D2:D16)</f>
-        <v>14.4</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -2563,38 +2557,38 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -2605,73 +2599,74 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>3</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -2689,7 +2684,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -2697,7 +2692,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <f>AVERAGE(D22:D30)</f>
-        <v>14.4444444444444</v>
+        <v>16.5555555555556</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2711,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2739,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2753,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2781,7 +2776,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2798,7 +2793,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>40</v>
@@ -2806,7 +2801,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D36:D41)</f>
-        <v>15</v>
+        <v>15.3333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2817,7 +2812,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D16,D22:D30,D36:D41)</f>
-        <v>14.5333333333333</v>
+        <v>15.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2832,8 +2827,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2872,7 +2867,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2881,12 +2876,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2895,12 +2890,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2909,26 +2904,26 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2942,7 +2937,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2956,7 +2951,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2965,12 +2960,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2979,12 +2974,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2993,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3040,7 +3035,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -3066,15 +3061,15 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f>AVERAGE(D2:D15)</f>
-        <v>14.2857142857143</v>
+        <v>13.7857142857143</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3082,13 +3077,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3096,7 +3091,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -3110,7 +3105,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -3121,24 +3116,24 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -3149,10 +3144,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -3166,7 +3161,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -3180,7 +3175,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -3195,7 +3190,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -3207,10 +3202,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -3234,7 +3229,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -3242,7 +3237,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <f>AVERAGE(D21:D30)</f>
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3256,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3298,7 +3293,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3326,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3343,7 +3338,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>40</v>
@@ -3351,7 +3346,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D36:D41)</f>
-        <v>14.8333333333333</v>
+        <v>15.3333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3362,7 +3357,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D15,D21:D30,D36:D41)</f>
-        <v>14.1666666666667</v>
+        <v>14.1</v>
       </c>
     </row>
   </sheetData>
@@ -3375,10 +3370,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3415,10 +3410,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3429,18 +3424,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3467,58 +3462,58 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.4285714285714</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>18.75</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3529,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3556,40 +3551,40 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
@@ -3599,15 +3594,9 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>16</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
@@ -3615,20 +3604,26 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="2">
-        <f>AVERAGE(C14:C23)</f>
-        <v>15.7</v>
+      <c r="C25" s="2">
+        <f>AVERAGE(C15:C22)</f>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3639,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3647,10 +3642,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3658,10 +3653,10 @@
         <v>56</v>
       </c>
       <c r="B31" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3669,22 +3664,16 @@
         <v>57</v>
       </c>
       <c r="B32" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="3">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3">
-        <v>16</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3"/>
@@ -3692,39 +3681,34 @@
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="3">
-        <f>AVERAGE(C29:C33)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
+      <c r="C35" s="3">
+        <f>AVERAGE(C28:C32)</f>
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="4">
-        <f>AVERAGE(C2:C8,C14:C23,C29:C33)</f>
-        <v>16.9545454545455</v>
+      <c r="B38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="4">
+        <f>AVERAGE(C2:C9,C15:C22,C28:C32)</f>
+        <v>18.047619047619</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C39 C11" formulaRange="1"/>
+    <ignoredError sqref="C12 C38" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3735,7 +3719,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3764,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3775,12 +3759,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -3791,13 +3775,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3808,74 +3792,74 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>13</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>12.4285714285714</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3883,10 +3867,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3897,18 +3881,18 @@
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3919,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3930,7 +3914,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3945,25 +3929,25 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C13:C20)</f>
-        <v>10.625</v>
+        <f>AVERAGE(C14:C20)</f>
+        <v>12.4285714285714</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3978,14 +3962,14 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3993,11 +3977,11 @@
         <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
-        <v>11.8</v>
+        <f>AVERAGE(C2:C8,C14:C20,C26:C26)</f>
+        <v>12.6</v>
       </c>
     </row>
   </sheetData>
@@ -4009,10 +3993,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4035,18 +4019,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4057,7 +4041,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4068,7 +4052,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4079,18 +4063,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -4101,10 +4085,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -4112,7 +4096,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -4129,74 +4113,74 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>10.3333333333333</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1">
-        <f>AVERAGE(C2:C12)</f>
-        <v>10.0909090909091</v>
-      </c>
-      <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4207,96 +4191,74 @@
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>7</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C18:C22)</f>
+      <c r="C23" s="2">
+        <f>AVERAGE(C16:C20)</f>
         <v>8.4</v>
       </c>
     </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C28:C28)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C12,C18:C22,C28:C28)</f>
-        <v>9.52941176470588</v>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C10,C16:C20,C26:C26)</f>
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>
